--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -451,267 +451,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>519093</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>新华钻石品质企业混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>89.54</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>007287</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>合煦智远消费主题股票A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>83.19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.46</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>007288</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>合煦智远消费主题股票C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>83.19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7.46</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华稳健回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000409</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华环保产业股票</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.70</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162203</t>
+          <t>003378</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利稳定混合</t>
+          <t>泰康策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>000409</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>鹏华环保产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003378</t>
+          <t>162203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康策略优选灵活配置混合</t>
+          <t>泰达宏利稳定混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005492</t>
+          <t>501080</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银汇理研究驱动灵活配置混合</t>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61.98</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>160624</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>鹏华消费领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>006526</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>鹏华优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰信蓝筹精选混合</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>010613</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>中融产业趋势一年定期开放混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006526</t>
+          <t>001004</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华优选回报灵活配置混合</t>
+          <t>新华稳健回报灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001004</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新华稳健回报灵活配置混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501080</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>73.90</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007287</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票A</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007288</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票C</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>005492</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>农银汇理研究驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>007287</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>合煦智远消费主题股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>005015</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>泰康景泰回报混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160624</t>
+          <t>010614</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鹏华消费领先混合</t>
+          <t>中融产业趋势一年定期开放混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>007288</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>合煦智远消费主题股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005179</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>信达澳银新起点定期开放灵活配置混合</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>61.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>005179</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2816,4 +2817,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3063,4 +3064,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3072,7 +3073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3083,17 +3084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3103,14 +3124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3631</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3119,14 +3162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3135,14 +3200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.79</v>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3151,13 +3238,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3813,7 +3814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3824,17 +3825,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3844,14 +3865,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.11</v>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3860,14 +3903,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -3876,14 +3941,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.31</v>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3892,14 +3979,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.79</v>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3908,13 +4017,851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4744,7 +4745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4755,17 +4756,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4775,14 +4796,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.76</v>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4791,14 +4834,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.11</v>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4807,14 +4872,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.89</v>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4823,14 +4910,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.31</v>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4839,14 +4948,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.79</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4855,13 +4986,1017 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>2.23</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>3.76</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>6.11</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.89</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.31</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>5.79</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -600,6 +617,1886 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2647,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3387,7 +5284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3633,7 +5530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4373,7 +6270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5645,7 +7542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603801-志邦家居.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>6.87</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>2.23</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>3.76</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>6.11</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.89</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.31</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>5.79</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,390 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +994,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8232</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012334</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012335</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2496,7 +4295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3614,7 +5413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4544,7 +6343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5284,7 +7083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5530,7 +7329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6270,7 +8069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7540,364 +9339,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6101</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新华钻石品质企业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1164</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新华稳健回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1028</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>